--- a/post.xlsx
+++ b/post.xlsx
@@ -435,13 +435,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="73.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
